--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$127</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4383" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4453" uniqueCount="417">
   <si>
     <t>Path</t>
   </si>
@@ -315,6 +315,9 @@
     <t>Medication.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -339,24 +342,40 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>unitPrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/medication-unit-price}
+    <t>useContext</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/medication-usage-context}
 </t>
   </si>
   <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Specifies the Medication unit price.</t>
+    <t>Usage Context</t>
+  </si>
+  <si>
+    <t>Specifies the Medical Item use context.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>frequency</t>
+    <t>unitPrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/unit-price}
+</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Specifies the Medical Item unit price.</t>
+  </si>
+  <si>
+    <t>timing</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/medication-frequency}
@@ -366,7 +385,20 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>The frequency a Medication can be prescribed.</t>
+    <t>The frequency a Medical Item can be prescribed.</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/medication-type}
+</t>
+  </si>
+  <si>
+    <t>Medication Type</t>
+  </si>
+  <si>
+    <t>The type of the Medical Item.</t>
   </si>
   <si>
     <t>Medication.modifierExtension</t>
@@ -1431,7 +1463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM125"/>
+  <dimension ref="A1:AM127"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2383,7 +2415,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>42</v>
@@ -2398,13 +2430,13 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2443,17 +2475,17 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -2465,7 +2497,7 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>40</v>
@@ -2485,17 +2517,17 @@
         <v>93</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>40</v>
@@ -2507,13 +2539,13 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2564,7 +2596,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2573,10 +2605,10 @@
         <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
@@ -2596,14 +2628,14 @@
         <v>93</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>49</v>
@@ -2618,13 +2650,13 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2675,7 +2707,7 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2684,10 +2716,10 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>40</v>
@@ -2704,43 +2736,41 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="C12" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>115</v>
       </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2788,7 +2818,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2797,16 +2827,16 @@
         <v>42</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
@@ -2817,9 +2847,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2828,29 +2860,27 @@
         <v>49</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>121</v>
-      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2887,17 +2917,19 @@
         <v>40</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AB13" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2906,19 +2938,19 @@
         <v>42</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2926,39 +2958,43 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
       </c>
@@ -3006,25 +3042,25 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -3035,39 +3071,39 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3105,19 +3141,17 @@
         <v>40</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3129,16 +3163,16 @@
         <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>40</v>
@@ -3163,13 +3197,13 @@
         <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>137</v>
@@ -3177,12 +3211,8 @@
       <c r="L16" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>40</v>
       </c>
@@ -3206,13 +3236,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
@@ -3230,7 +3260,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3242,35 +3272,35 @@
         <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>40</v>
@@ -3279,23 +3309,21 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
       </c>
@@ -3319,60 +3347,60 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3389,22 +3417,26 @@
         <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3428,13 +3460,13 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
@@ -3452,7 +3484,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3464,35 +3496,35 @@
         <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -3501,21 +3533,23 @@
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3539,60 +3573,60 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>40</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3603,7 +3637,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
@@ -3612,23 +3646,19 @@
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3676,31 +3706,31 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" hidden="true">
@@ -3709,14 +3739,14 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3728,15 +3758,17 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3773,37 +3805,37 @@
         <v>40</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3818,7 +3850,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3834,21 +3866,23 @@
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3884,19 +3918,19 @@
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3908,24 +3942,24 @@
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3945,23 +3979,19 @@
         <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -4009,7 +4039,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4021,35 +4051,35 @@
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -4058,19 +4088,19 @@
         <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4108,48 +4138,48 @@
         <v>40</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4172,17 +4202,19 @@
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4207,11 +4239,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4229,7 +4263,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4247,18 +4281,18 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4284,15 +4318,15 @@
         <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4340,7 +4374,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4358,18 +4392,18 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4392,19 +4426,17 @@
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4429,13 +4461,11 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4453,7 +4483,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4471,18 +4501,18 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4508,16 +4538,14 @@
         <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4566,7 +4594,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4584,18 +4612,18 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4618,19 +4646,19 @@
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4643,7 +4671,7 @@
         <v>40</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>40</v>
@@ -4679,7 +4707,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4697,18 +4725,18 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4734,15 +4762,17 @@
         <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4754,7 +4784,7 @@
         <v>40</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>40</v>
@@ -4790,7 +4820,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4808,18 +4838,18 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4842,16 +4872,20 @@
         <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4863,7 +4897,7 @@
         <v>40</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>40</v>
@@ -4899,7 +4933,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4917,18 +4951,18 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4951,16 +4985,16 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>242</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4974,7 +5008,7 @@
         <v>40</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>40</v>
@@ -5010,7 +5044,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5028,34 +5062,32 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
@@ -5064,17 +5096,15 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>119</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -5123,13 +5153,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -5141,18 +5171,18 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5172,18 +5202,20 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>127</v>
+        <v>253</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -5232,7 +5264,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5244,56 +5276,58 @@
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="C35" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5331,19 +5365,19 @@
         <v>40</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5355,16 +5389,16 @@
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5389,13 +5423,13 @@
         <v>40</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>137</v>
@@ -5403,12 +5437,8 @@
       <c r="L36" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5432,13 +5462,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5456,7 +5486,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5468,35 +5498,35 @@
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5505,23 +5535,21 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5545,60 +5573,60 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5615,22 +5643,26 @@
         <v>40</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5654,13 +5686,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5678,7 +5710,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5690,35 +5722,35 @@
         <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5727,21 +5759,23 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5765,60 +5799,60 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>40</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5829,7 +5863,7 @@
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5838,23 +5872,19 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5902,31 +5932,31 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" hidden="true">
@@ -5935,14 +5965,14 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5954,15 +5984,17 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5999,37 +6031,37 @@
         <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -6044,7 +6076,7 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6060,21 +6092,23 @@
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6110,19 +6144,19 @@
         <v>40</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6134,24 +6168,24 @@
         <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6171,23 +6205,19 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6235,7 +6265,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6247,35 +6277,35 @@
         <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6284,19 +6314,19 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6334,48 +6364,48 @@
         <v>40</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6383,7 +6413,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>49</v>
@@ -6398,17 +6428,19 @@
         <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6418,7 +6450,7 @@
         <v>40</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>40</v>
@@ -6457,7 +6489,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6475,18 +6507,18 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6512,15 +6544,15 @@
         <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6568,7 +6600,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6586,18 +6618,18 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6605,7 +6637,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>49</v>
@@ -6620,19 +6652,17 @@
         <v>50</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6642,7 +6672,7 @@
         <v>40</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>40</v>
@@ -6681,7 +6711,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6699,18 +6729,18 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6736,16 +6766,14 @@
         <v>51</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6794,7 +6822,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6812,18 +6840,18 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6846,19 +6874,19 @@
         <v>50</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6871,7 +6899,7 @@
         <v>40</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>40</v>
@@ -6907,7 +6935,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6925,18 +6953,18 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6962,15 +6990,17 @@
         <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6982,7 +7012,7 @@
         <v>40</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>40</v>
@@ -7018,7 +7048,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7036,18 +7066,18 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7070,16 +7100,20 @@
         <v>50</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
       </c>
@@ -7091,7 +7125,7 @@
         <v>40</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>40</v>
@@ -7127,7 +7161,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7145,18 +7179,18 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7179,16 +7213,16 @@
         <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>242</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7202,7 +7236,7 @@
         <v>40</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>40</v>
@@ -7238,7 +7272,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7256,22 +7290,20 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7292,17 +7324,15 @@
         <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>119</v>
+        <v>246</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7351,13 +7381,13 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
@@ -7369,18 +7399,18 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7400,18 +7430,20 @@
         <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>127</v>
+        <v>253</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7460,7 +7492,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7472,35 +7504,37 @@
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="C55" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>40</v>
@@ -7509,19 +7543,19 @@
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7559,19 +7593,19 @@
         <v>40</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7583,16 +7617,16 @@
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>40</v>
@@ -7617,13 +7651,13 @@
         <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>137</v>
@@ -7631,12 +7665,8 @@
       <c r="L56" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7660,13 +7690,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7684,7 +7714,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7696,35 +7726,35 @@
         <v>40</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
@@ -7733,23 +7763,21 @@
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7773,60 +7801,60 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7843,22 +7871,26 @@
         <v>40</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
@@ -7882,13 +7914,13 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>40</v>
@@ -7906,7 +7938,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7918,35 +7950,35 @@
         <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -7955,21 +7987,23 @@
         <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7993,60 +8027,60 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>40</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8057,7 +8091,7 @@
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
@@ -8066,23 +8100,19 @@
         <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8130,31 +8160,31 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -8163,14 +8193,14 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8182,15 +8212,17 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8227,37 +8259,37 @@
         <v>40</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -8272,7 +8304,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8288,21 +8320,23 @@
         <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>40</v>
       </c>
@@ -8338,19 +8372,19 @@
         <v>40</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8362,24 +8396,24 @@
         <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8399,23 +8433,19 @@
         <v>40</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8463,7 +8493,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8475,35 +8505,35 @@
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
@@ -8512,19 +8542,19 @@
         <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8562,48 +8592,48 @@
         <v>40</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8611,7 +8641,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>49</v>
@@ -8626,17 +8656,19 @@
         <v>50</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8646,7 +8678,7 @@
         <v>40</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>40</v>
@@ -8685,7 +8717,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8703,18 +8735,18 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8740,15 +8772,15 @@
         <v>51</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
       </c>
@@ -8796,7 +8828,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8814,18 +8846,18 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8833,7 +8865,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>49</v>
@@ -8848,19 +8880,17 @@
         <v>50</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -8870,7 +8900,7 @@
         <v>40</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>40</v>
@@ -8909,7 +8939,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8927,18 +8957,18 @@
         <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8964,16 +8994,14 @@
         <v>51</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
@@ -9022,7 +9050,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9040,18 +9068,18 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9074,19 +9102,19 @@
         <v>50</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>40</v>
@@ -9099,7 +9127,7 @@
         <v>40</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>40</v>
@@ -9135,7 +9163,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9153,18 +9181,18 @@
         <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9190,15 +9218,17 @@
         <v>51</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>40</v>
       </c>
@@ -9210,7 +9240,7 @@
         <v>40</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>40</v>
@@ -9246,7 +9276,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9264,18 +9294,18 @@
         <v>40</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9298,16 +9328,20 @@
         <v>50</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9319,7 +9353,7 @@
         <v>40</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>40</v>
@@ -9355,7 +9389,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9373,18 +9407,18 @@
         <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9407,16 +9441,16 @@
         <v>50</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>242</v>
+        <v>51</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9430,7 +9464,7 @@
         <v>40</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>40</v>
@@ -9466,7 +9500,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9484,22 +9518,20 @@
         <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
         <v>40</v>
       </c>
@@ -9520,17 +9552,15 @@
         <v>50</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>119</v>
+        <v>246</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9579,13 +9609,13 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>40</v>
@@ -9597,18 +9627,18 @@
         <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9628,18 +9658,20 @@
         <v>40</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>127</v>
+        <v>253</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>40</v>
@@ -9688,7 +9720,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9700,35 +9732,37 @@
         <v>40</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="C75" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>40</v>
@@ -9737,19 +9771,19 @@
         <v>40</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9787,19 +9821,19 @@
         <v>40</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9811,16 +9845,16 @@
         <v>40</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>40</v>
@@ -9845,13 +9879,13 @@
         <v>40</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>137</v>
@@ -9859,12 +9893,8 @@
       <c r="L76" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M76" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
       </c>
@@ -9888,13 +9918,13 @@
         <v>40</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>40</v>
@@ -9912,7 +9942,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9924,35 +9954,35 @@
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>40</v>
@@ -9961,23 +9991,21 @@
         <v>40</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>40</v>
       </c>
@@ -10001,60 +10029,60 @@
         <v>40</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10071,22 +10099,26 @@
         <v>40</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>40</v>
       </c>
@@ -10110,13 +10142,13 @@
         <v>40</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>40</v>
@@ -10134,7 +10166,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10146,35 +10178,35 @@
         <v>40</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>40</v>
@@ -10183,21 +10215,23 @@
         <v>40</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>40</v>
       </c>
@@ -10221,60 +10255,60 @@
         <v>40</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>40</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10285,7 +10319,7 @@
         <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>40</v>
@@ -10294,23 +10328,19 @@
         <v>40</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>40</v>
       </c>
@@ -10358,31 +10388,31 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" hidden="true">
@@ -10391,14 +10421,14 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>40</v>
@@ -10410,15 +10440,17 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -10455,37 +10487,37 @@
         <v>40</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>40</v>
@@ -10500,7 +10532,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10516,21 +10548,23 @@
         <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>40</v>
       </c>
@@ -10566,19 +10600,19 @@
         <v>40</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10590,24 +10624,24 @@
         <v>40</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10627,23 +10661,19 @@
         <v>40</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>40</v>
       </c>
@@ -10691,7 +10721,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10703,35 +10733,35 @@
         <v>40</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>40</v>
@@ -10740,19 +10770,19 @@
         <v>40</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -10790,48 +10820,48 @@
         <v>40</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10839,7 +10869,7 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>49</v>
@@ -10854,17 +10884,19 @@
         <v>50</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>256</v>
+        <v>181</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="N85" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>40</v>
@@ -10874,7 +10906,7 @@
         <v>40</v>
       </c>
       <c r="R85" t="s" s="2">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>40</v>
@@ -10913,7 +10945,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -10931,18 +10963,18 @@
         <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10968,15 +11000,15 @@
         <v>51</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>40</v>
       </c>
@@ -11024,7 +11056,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11042,18 +11074,18 @@
         <v>40</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11061,7 +11093,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>49</v>
@@ -11076,19 +11108,17 @@
         <v>50</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>40</v>
@@ -11098,7 +11128,7 @@
         <v>40</v>
       </c>
       <c r="R87" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>40</v>
@@ -11137,7 +11167,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11155,18 +11185,18 @@
         <v>40</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11192,16 +11222,14 @@
         <v>51</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>40</v>
@@ -11250,7 +11278,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11268,18 +11296,18 @@
         <v>40</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11302,19 +11330,19 @@
         <v>50</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>40</v>
@@ -11327,7 +11355,7 @@
         <v>40</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>40</v>
@@ -11363,7 +11391,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11381,18 +11409,18 @@
         <v>40</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11418,15 +11446,17 @@
         <v>51</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>40</v>
       </c>
@@ -11438,7 +11468,7 @@
         <v>40</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>40</v>
@@ -11474,7 +11504,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11492,18 +11522,18 @@
         <v>40</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11526,16 +11556,20 @@
         <v>50</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>40</v>
       </c>
@@ -11547,7 +11581,7 @@
         <v>40</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>40</v>
@@ -11583,7 +11617,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11601,18 +11635,18 @@
         <v>40</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11635,16 +11669,16 @@
         <v>50</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>242</v>
+        <v>51</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -11658,7 +11692,7 @@
         <v>40</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>40</v>
@@ -11694,7 +11728,7 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -11712,18 +11746,18 @@
         <v>40</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11731,7 +11765,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>49</v>
@@ -11746,17 +11780,15 @@
         <v>50</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>40</v>
@@ -11781,13 +11813,13 @@
         <v>40</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>40</v>
@@ -11805,7 +11837,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -11820,21 +11852,21 @@
         <v>61</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11854,18 +11886,20 @@
         <v>40</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>127</v>
+        <v>253</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>40</v>
@@ -11914,7 +11948,7 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -11926,35 +11960,35 @@
         <v>40</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>130</v>
+        <v>257</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>40</v>
@@ -11963,19 +11997,19 @@
         <v>40</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>132</v>
+        <v>270</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>114</v>
+        <v>272</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12001,60 +12035,60 @@
         <v>40</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>40</v>
+        <v>275</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AC95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>135</v>
+        <v>269</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>40</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12065,7 +12099,7 @@
         <v>41</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>40</v>
@@ -12074,23 +12108,19 @@
         <v>40</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>40</v>
       </c>
@@ -12138,47 +12168,47 @@
         <v>40</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>40</v>
@@ -12187,23 +12217,21 @@
         <v>40</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>274</v>
+        <v>142</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>275</v>
+        <v>143</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>40</v>
       </c>
@@ -12239,48 +12267,48 @@
         <v>40</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC97" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>216</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12291,30 +12319,32 @@
         <v>41</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>277</v>
+        <v>171</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>278</v>
+        <v>172</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>40</v>
       </c>
@@ -12323,7 +12353,7 @@
         <v>40</v>
       </c>
       <c r="R98" t="s" s="2">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>40</v>
@@ -12338,13 +12368,13 @@
         <v>40</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>40</v>
@@ -12362,13 +12392,13 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>276</v>
+        <v>175</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>40</v>
@@ -12380,18 +12410,18 @@
         <v>40</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12399,10 +12429,10 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>40</v>
@@ -12414,16 +12444,20 @@
         <v>50</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>242</v>
+        <v>51</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L99" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+      <c r="M99" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>40</v>
       </c>
@@ -12471,7 +12505,7 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -12486,21 +12520,21 @@
         <v>61</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>290</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12517,22 +12551,22 @@
         <v>40</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -12543,7 +12577,7 @@
         <v>40</v>
       </c>
       <c r="R100" t="s" s="2">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>40</v>
@@ -12558,13 +12592,13 @@
         <v>40</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>263</v>
+        <v>151</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>40</v>
@@ -12582,7 +12616,7 @@
         <v>40</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -12597,21 +12631,21 @@
         <v>61</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>299</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12622,7 +12656,7 @@
         <v>41</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>40</v>
@@ -12634,13 +12668,13 @@
         <v>50</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12691,7 +12725,7 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -12706,21 +12740,21 @@
         <v>61</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12743,15 +12777,17 @@
         <v>40</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>127</v>
+        <v>302</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M102" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>40</v>
@@ -12776,13 +12812,13 @@
         <v>40</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>40</v>
@@ -12800,7 +12836,7 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -12812,35 +12848,35 @@
         <v>40</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>130</v>
+        <v>308</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>40</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>40</v>
@@ -12849,20 +12885,18 @@
         <v>40</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>94</v>
+        <v>311</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>40</v>
@@ -12899,37 +12933,37 @@
         <v>40</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AC103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>130</v>
+        <v>314</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>40</v>
@@ -12940,7 +12974,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12948,7 +12982,7 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>49</v>
@@ -12960,16 +12994,16 @@
         <v>40</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>308</v>
+        <v>51</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>309</v>
+        <v>137</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>310</v>
+        <v>138</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13020,7 +13054,7 @@
         <v>40</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>311</v>
+        <v>139</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
@@ -13032,13 +13066,13 @@
         <v>40</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>312</v>
+        <v>140</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>40</v>
@@ -13049,18 +13083,18 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>40</v>
@@ -13072,15 +13106,17 @@
         <v>40</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M105" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>40</v>
@@ -13117,37 +13153,37 @@
         <v>40</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>40</v>
@@ -13158,18 +13194,18 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>40</v>
@@ -13178,20 +13214,18 @@
         <v>40</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>94</v>
+        <v>318</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>132</v>
+        <v>319</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="M106" s="2"/>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>40</v>
@@ -13228,37 +13262,37 @@
         <v>40</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AC106" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>135</v>
+        <v>321</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>130</v>
+        <v>322</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>40</v>
@@ -13269,7 +13303,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13277,7 +13311,7 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>49</v>
@@ -13289,23 +13323,19 @@
         <v>40</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>316</v>
+        <v>51</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>317</v>
+        <v>137</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>40</v>
       </c>
@@ -13353,7 +13383,7 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>321</v>
+        <v>139</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -13365,19 +13395,19 @@
         <v>40</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>322</v>
+        <v>140</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>323</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" hidden="true">
@@ -13386,43 +13416,41 @@
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>325</v>
+        <v>142</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P108" t="s" s="2">
-        <v>328</v>
-      </c>
+      <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
         <v>40</v>
       </c>
@@ -13442,60 +13470,60 @@
         <v>40</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>329</v>
+        <v>40</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>331</v>
+        <v>145</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>332</v>
+        <v>140</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>333</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13503,7 +13531,7 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>49</v>
@@ -13518,17 +13546,19 @@
         <v>50</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>51</v>
+        <v>326</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M109" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="N109" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>40</v>
@@ -13577,7 +13607,7 @@
         <v>40</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
@@ -13595,18 +13625,18 @@
         <v>40</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13623,28 +13653,30 @@
         <v>40</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="Q110" t="s" s="2">
         <v>40</v>
       </c>
@@ -13664,13 +13696,13 @@
         <v>40</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>40</v>
@@ -13688,7 +13720,7 @@
         <v>40</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
@@ -13697,7 +13729,7 @@
         <v>49</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>346</v>
+        <v>40</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>61</v>
@@ -13706,18 +13738,18 @@
         <v>40</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13740,19 +13772,17 @@
         <v>50</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>40</v>
@@ -13801,7 +13831,7 @@
         <v>40</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>41</v>
@@ -13819,18 +13849,18 @@
         <v>40</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13841,7 +13871,7 @@
         <v>41</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>40</v>
@@ -13853,16 +13883,18 @@
         <v>50</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>308</v>
+        <v>63</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
+      <c r="N112" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>40</v>
       </c>
@@ -13910,7 +13942,7 @@
         <v>40</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>41</v>
@@ -13919,7 +13951,7 @@
         <v>49</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>61</v>
@@ -13928,18 +13960,18 @@
         <v>40</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>40</v>
+        <v>350</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13950,7 +13982,7 @@
         <v>41</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>40</v>
@@ -13959,21 +13991,23 @@
         <v>40</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L113" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>40</v>
       </c>
@@ -14021,13 +14055,13 @@
         <v>40</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>40</v>
@@ -14039,18 +14073,18 @@
         <v>40</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>40</v>
+        <v>350</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14061,7 +14095,7 @@
         <v>41</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>40</v>
@@ -14070,16 +14104,16 @@
         <v>40</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>51</v>
+        <v>318</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>127</v>
+        <v>366</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>128</v>
+        <v>367</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -14130,7 +14164,7 @@
         <v>40</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>129</v>
+        <v>368</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -14142,13 +14176,13 @@
         <v>40</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>130</v>
+        <v>369</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>40</v>
@@ -14159,18 +14193,18 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>40</v>
@@ -14182,16 +14216,16 @@
         <v>40</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>94</v>
+        <v>371</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>132</v>
+        <v>372</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>133</v>
+        <v>373</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>114</v>
+        <v>374</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -14241,7 +14275,7 @@
         <v>40</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>135</v>
+        <v>370</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -14253,13 +14287,13 @@
         <v>40</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>130</v>
+        <v>375</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>40</v>
@@ -14270,43 +14304,39 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>369</v>
+        <v>40</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>370</v>
+        <v>137</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>40</v>
       </c>
@@ -14354,25 +14384,25 @@
         <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>372</v>
+        <v>139</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>40</v>
@@ -14383,18 +14413,18 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>40</v>
@@ -14406,18 +14436,18 @@
         <v>40</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>374</v>
+        <v>95</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>375</v>
+        <v>142</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>40</v>
       </c>
@@ -14465,69 +14495,71 @@
         <v>40</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>373</v>
+        <v>145</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>378</v>
+        <v>140</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>379</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>40</v>
+        <v>379</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L118" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M118" s="2"/>
+      <c r="M118" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N118" t="s" s="2">
-        <v>383</v>
+        <v>125</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>40</v>
@@ -14576,25 +14608,25 @@
         <v>40</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>384</v>
+        <v>92</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>40</v>
@@ -14605,7 +14637,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14613,7 +14645,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>49</v>
@@ -14628,16 +14660,18 @@
         <v>40</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>301</v>
+        <v>384</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" s="2"/>
+      <c r="N119" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>40</v>
       </c>
@@ -14685,10 +14719,10 @@
         <v>40</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>49</v>
@@ -14700,10 +14734,10 @@
         <v>61</v>
       </c>
       <c r="AJ119" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK119" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>40</v>
@@ -14725,7 +14759,7 @@
         <v>41</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>40</v>
@@ -14737,7 +14771,7 @@
         <v>40</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>361</v>
+        <v>211</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>391</v>
@@ -14746,7 +14780,9 @@
         <v>392</v>
       </c>
       <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
+      <c r="N120" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O120" t="s" s="2">
         <v>40</v>
       </c>
@@ -14809,10 +14845,10 @@
         <v>61</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>40</v>
@@ -14823,7 +14859,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14846,13 +14882,13 @@
         <v>40</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>51</v>
+        <v>311</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>127</v>
+        <v>396</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>128</v>
+        <v>397</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -14903,7 +14939,7 @@
         <v>40</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>129</v>
+        <v>395</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -14915,35 +14951,35 @@
         <v>40</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>40</v>
+        <v>398</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>130</v>
+        <v>314</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>40</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>40</v>
@@ -14955,17 +14991,15 @@
         <v>40</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>94</v>
+        <v>371</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>132</v>
+        <v>401</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>40</v>
@@ -15014,25 +15048,25 @@
         <v>40</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>135</v>
+        <v>400</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>130</v>
+        <v>403</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>40</v>
@@ -15043,43 +15077,39 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>369</v>
+        <v>40</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>370</v>
+        <v>137</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>40</v>
       </c>
@@ -15127,25 +15157,25 @@
         <v>40</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>372</v>
+        <v>139</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>40</v>
@@ -15156,18 +15186,18 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>40</v>
@@ -15179,15 +15209,17 @@
         <v>40</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>398</v>
+        <v>142</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M124" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>40</v>
@@ -15236,68 +15268,72 @@
         <v>40</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>397</v>
+        <v>145</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>400</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>40</v>
+        <v>379</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>402</v>
+        <v>95</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O125" t="s" s="2">
         <v>40</v>
       </c>
@@ -15345,35 +15381,253 @@
         <v>40</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI125" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI126" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AJ125" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>406</v>
+      <c r="AJ126" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM125">
+  <autoFilter ref="A1:AM127">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15383,7 +15637,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI124">
+  <conditionalFormatting sqref="A2:AI126">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$107</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4453" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3749" uniqueCount="411">
   <si>
     <t>Path</t>
   </si>
@@ -827,34 +827,16 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>MedicationCode</t>
-  </si>
-  <si>
     <t>Medication openIMIS Code</t>
   </si>
   <si>
     <t>Medication Code managed by openIMIS.</t>
   </si>
   <si>
-    <t>MedicationUUID</t>
+    <t>UUID</t>
   </si>
   <si>
     <t>Medication openIMIS UUID</t>
-  </si>
-  <si>
-    <t>UUID</t>
-  </si>
-  <si>
-    <t>MedicationID</t>
-  </si>
-  <si>
-    <t>Medication openIMIS Database ID</t>
-  </si>
-  <si>
-    <t>Medication Database ID generated by openIMIS.</t>
-  </si>
-  <si>
-    <t>DBID</t>
   </si>
   <si>
     <t>Medication.code</t>
@@ -1463,7 +1445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM127"/>
+  <dimension ref="A1:AM107"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1473,7 +1455,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.76171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -5296,7 +5278,7 @@
         <v>127</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>40</v>
@@ -6655,10 +6637,10 @@
         <v>69</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
@@ -7524,7 +7506,7 @@
         <v>127</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>40</v>
@@ -8883,7 +8865,7 @@
         <v>69</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>53</v>
@@ -8900,7 +8882,7 @@
         <v>40</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>40</v>
@@ -9749,17 +9731,15 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>49</v>
@@ -9774,16 +9754,16 @@
         <v>50</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>129</v>
+        <v>264</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>130</v>
+        <v>265</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9809,13 +9789,13 @@
         <v>40</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>40</v>
@@ -9833,13 +9813,13 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>127</v>
+        <v>263</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
@@ -9848,21 +9828,21 @@
         <v>61</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>134</v>
+        <v>271</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>40</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>136</v>
+        <v>274</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9971,7 +9951,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>141</v>
+        <v>275</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10082,7 +10062,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>146</v>
+        <v>276</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10093,31 +10073,31 @@
         <v>41</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>40</v>
@@ -10142,13 +10122,13 @@
         <v>40</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>40</v>
@@ -10166,13 +10146,13 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>40</v>
@@ -10184,18 +10164,18 @@
         <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>92</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>156</v>
+        <v>277</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10203,7 +10183,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>49</v>
@@ -10218,19 +10198,19 @@
         <v>50</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -10255,13 +10235,13 @@
         <v>40</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>40</v>
@@ -10279,7 +10259,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10297,18 +10277,18 @@
         <v>40</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>166</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>167</v>
+        <v>280</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10325,21 +10305,23 @@
         <v>40</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>137</v>
+        <v>281</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>40</v>
@@ -10349,7 +10331,7 @@
         <v>40</v>
       </c>
       <c r="R80" t="s" s="2">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="S80" t="s" s="2">
         <v>40</v>
@@ -10364,13 +10346,13 @@
         <v>40</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>40</v>
+        <v>285</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>40</v>
@@ -10388,7 +10370,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10400,13 +10382,13 @@
         <v>40</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>140</v>
+        <v>287</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
@@ -10417,18 +10399,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>168</v>
+        <v>288</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>40</v>
@@ -10437,20 +10419,18 @@
         <v>40</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>142</v>
+        <v>289</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -10487,48 +10467,48 @@
         <v>40</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>145</v>
+        <v>288</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10539,7 +10519,7 @@
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>40</v>
@@ -10548,23 +10528,21 @@
         <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>171</v>
+        <v>296</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>172</v>
+        <v>297</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>40</v>
       </c>
@@ -10588,13 +10566,13 @@
         <v>40</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>40</v>
@@ -10612,13 +10590,13 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>40</v>
@@ -10627,21 +10605,21 @@
         <v>61</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>176</v>
+        <v>302</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>177</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>178</v>
+        <v>304</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10661,16 +10639,16 @@
         <v>40</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>51</v>
+        <v>305</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>137</v>
+        <v>306</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>138</v>
+        <v>307</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10721,7 +10699,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>139</v>
+        <v>304</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10733,13 +10711,13 @@
         <v>40</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>140</v>
+        <v>308</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
@@ -10750,18 +10728,18 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>179</v>
+        <v>309</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>40</v>
@@ -10773,17 +10751,15 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>40</v>
@@ -10820,31 +10796,31 @@
         <v>40</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>40</v>
@@ -10861,18 +10837,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>40</v>
@@ -10881,23 +10857,21 @@
         <v>40</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>40</v>
       </c>
@@ -10933,48 +10907,48 @@
         <v>40</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>187</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10982,7 +10956,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>49</v>
@@ -10997,17 +10971,15 @@
         <v>50</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>51</v>
+        <v>312</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -11056,7 +11028,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>192</v>
+        <v>315</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11074,18 +11046,18 @@
         <v>40</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>193</v>
+        <v>316</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>195</v>
+        <v>317</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11093,7 +11065,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>49</v>
@@ -11105,21 +11077,19 @@
         <v>40</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>266</v>
+        <v>137</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>267</v>
+        <v>138</v>
       </c>
       <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>198</v>
-      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>40</v>
       </c>
@@ -11128,7 +11098,7 @@
         <v>40</v>
       </c>
       <c r="R87" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>40</v>
@@ -11167,7 +11137,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11179,35 +11149,35 @@
         <v>40</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>203</v>
+        <v>318</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>40</v>
@@ -11216,21 +11186,21 @@
         <v>40</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>40</v>
       </c>
@@ -11266,48 +11236,48 @@
         <v>40</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>207</v>
+        <v>145</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>209</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11315,7 +11285,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>49</v>
@@ -11330,19 +11300,19 @@
         <v>50</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>211</v>
+        <v>320</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>212</v>
+        <v>321</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>214</v>
+        <v>323</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>215</v>
+        <v>324</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>40</v>
@@ -11391,7 +11361,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>216</v>
+        <v>325</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11409,18 +11379,18 @@
         <v>40</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>217</v>
+        <v>326</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>218</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11437,30 +11407,30 @@
         <v>40</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>220</v>
+        <v>329</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>223</v>
+        <v>331</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="Q90" t="s" s="2">
         <v>40</v>
       </c>
@@ -11480,13 +11450,13 @@
         <v>40</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>40</v>
@@ -11504,7 +11474,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>224</v>
+        <v>335</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11522,18 +11492,18 @@
         <v>40</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>225</v>
+        <v>336</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>226</v>
+        <v>337</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>227</v>
+        <v>338</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11556,19 +11526,17 @@
         <v>50</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>228</v>
+        <v>339</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>231</v>
+        <v>341</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>40</v>
@@ -11581,7 +11549,7 @@
         <v>40</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>40</v>
@@ -11617,7 +11585,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>233</v>
+        <v>342</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11635,18 +11603,18 @@
         <v>40</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>235</v>
+        <v>344</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>236</v>
+        <v>345</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11669,18 +11637,18 @@
         <v>50</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>237</v>
+        <v>346</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>40</v>
       </c>
@@ -11692,7 +11660,7 @@
         <v>40</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>40</v>
@@ -11728,7 +11696,7 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>241</v>
+        <v>349</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -11737,7 +11705,7 @@
         <v>49</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>61</v>
@@ -11746,18 +11714,18 @@
         <v>40</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>242</v>
+        <v>351</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>243</v>
+        <v>344</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>244</v>
+        <v>352</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11780,16 +11748,20 @@
         <v>50</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>245</v>
+        <v>69</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>246</v>
+        <v>353</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>40</v>
       </c>
@@ -11837,7 +11809,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>248</v>
+        <v>357</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -11855,18 +11827,18 @@
         <v>40</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>249</v>
+        <v>358</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>250</v>
+        <v>344</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>251</v>
+        <v>359</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11877,7 +11849,7 @@
         <v>41</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>40</v>
@@ -11889,17 +11861,15 @@
         <v>50</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>253</v>
+        <v>360</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>40</v>
@@ -11948,7 +11918,7 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>256</v>
+        <v>362</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -11966,18 +11936,18 @@
         <v>40</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>257</v>
+        <v>363</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>258</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>269</v>
+        <v>364</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11985,10 +11955,10 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>40</v>
@@ -11997,19 +11967,19 @@
         <v>40</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>157</v>
+        <v>365</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>270</v>
+        <v>366</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>271</v>
+        <v>367</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12035,13 +12005,13 @@
         <v>40</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>40</v>
@@ -12059,13 +12029,13 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>269</v>
+        <v>364</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>40</v>
@@ -12074,21 +12044,21 @@
         <v>61</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>276</v>
+        <v>40</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>277</v>
+        <v>369</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>278</v>
+        <v>40</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>279</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12197,7 +12167,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>281</v>
+        <v>371</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12267,16 +12237,16 @@
         <v>40</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="AC97" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE97" t="s" s="2">
         <v>145</v>
@@ -12308,11 +12278,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>282</v>
+        <v>372</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>40</v>
+        <v>373</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12325,25 +12295,25 @@
         <v>40</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>171</v>
+        <v>374</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>172</v>
+        <v>375</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>40</v>
@@ -12392,7 +12362,7 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>175</v>
+        <v>376</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -12404,24 +12374,24 @@
         <v>40</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>283</v>
+        <v>377</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12441,22 +12411,20 @@
         <v>40</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>51</v>
+        <v>378</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>284</v>
+        <v>379</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>223</v>
+        <v>381</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>40</v>
@@ -12505,10 +12473,10 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>224</v>
+        <v>377</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>49</v>
@@ -12520,21 +12488,21 @@
         <v>61</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>225</v>
+        <v>382</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>226</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>286</v>
+        <v>384</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12551,24 +12519,24 @@
         <v>40</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>287</v>
+        <v>385</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>40</v>
       </c>
@@ -12577,7 +12545,7 @@
         <v>40</v>
       </c>
       <c r="R100" t="s" s="2">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>40</v>
@@ -12592,13 +12560,13 @@
         <v>40</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>292</v>
+        <v>40</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>40</v>
@@ -12616,7 +12584,7 @@
         <v>40</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>286</v>
+        <v>384</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -12634,7 +12602,7 @@
         <v>40</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>293</v>
+        <v>388</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>40</v>
@@ -12645,7 +12613,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12656,7 +12624,7 @@
         <v>41</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>40</v>
@@ -12665,16 +12633,16 @@
         <v>40</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>295</v>
+        <v>390</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>296</v>
+        <v>391</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12725,7 +12693,7 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -12740,21 +12708,21 @@
         <v>61</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>297</v>
+        <v>392</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>300</v>
+        <v>393</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>301</v>
+        <v>394</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12765,7 +12733,7 @@
         <v>41</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>40</v>
@@ -12777,17 +12745,15 @@
         <v>40</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>157</v>
+        <v>365</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>302</v>
+        <v>395</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>40</v>
@@ -12812,13 +12778,13 @@
         <v>40</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>40</v>
@@ -12836,7 +12802,7 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>301</v>
+        <v>394</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -12851,21 +12817,21 @@
         <v>61</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>308</v>
+        <v>397</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>309</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>310</v>
+        <v>398</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12885,16 +12851,16 @@
         <v>40</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>311</v>
+        <v>51</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>312</v>
+        <v>137</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>313</v>
+        <v>138</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12945,7 +12911,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>310</v>
+        <v>139</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -12957,13 +12923,13 @@
         <v>40</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>314</v>
+        <v>140</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>40</v>
@@ -12974,18 +12940,18 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>315</v>
+        <v>399</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>40</v>
@@ -12997,15 +12963,17 @@
         <v>40</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M104" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>40</v>
@@ -13054,19 +13022,19 @@
         <v>40</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>40</v>
@@ -13083,11 +13051,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>121</v>
+        <v>373</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13100,24 +13068,26 @@
         <v>40</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>142</v>
+        <v>374</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>143</v>
+        <v>375</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N105" s="2"/>
+      <c r="N105" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>40</v>
       </c>
@@ -13153,19 +13123,19 @@
         <v>40</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>145</v>
+        <v>376</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13183,7 +13153,7 @@
         <v>40</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>40</v>
@@ -13194,7 +13164,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>317</v>
+        <v>401</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13202,7 +13172,7 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>49</v>
@@ -13214,16 +13184,16 @@
         <v>40</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>318</v>
+        <v>51</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>319</v>
+        <v>402</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13274,7 +13244,7 @@
         <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>321</v>
+        <v>401</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -13289,21 +13259,21 @@
         <v>61</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>322</v>
+        <v>134</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>40</v>
+        <v>404</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>323</v>
+        <v>405</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13326,13 +13296,13 @@
         <v>40</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>51</v>
+        <v>406</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>137</v>
+        <v>407</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>138</v>
+        <v>408</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13383,7 +13353,7 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>139</v>
+        <v>405</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -13395,2239 +13365,23 @@
         <v>40</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>140</v>
+        <v>409</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P110" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="Q110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F117" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F118" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M119" s="2"/>
-      <c r="N119" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M120" s="2"/>
-      <c r="N120" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F121" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P121" s="2"/>
-      <c r="Q121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F123" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F124" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N124" s="2"/>
-      <c r="O124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P124" s="2"/>
-      <c r="Q124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM126" t="s" s="2">
         <v>410</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F127" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P127" s="2"/>
-      <c r="Q127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>416</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM127">
+  <autoFilter ref="A1:AM107">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15637,7 +13391,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI126">
+  <conditionalFormatting sqref="A2:AI106">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:19:28+00:00</t>
+    <t>2021-09-01T13:21:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:21:06+00:00</t>
+    <t>2021-09-14T14:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:32:44+00:00</t>
+    <t>2021-09-14T14:33:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:33:18+00:00</t>
+    <t>2021-09-15T10:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:06:59+00:00</t>
+    <t>2021-09-15T10:19:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:19:11+00:00</t>
+    <t>2021-09-17T09:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:55:36+00:00</t>
+    <t>2021-09-17T09:56:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:56:14+00:00</t>
+    <t>2021-09-17T10:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:02+00:00</t>
+    <t>2021-09-17T10:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:57+00:00</t>
+    <t>2021-09-17T16:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:55:55+00:00</t>
+    <t>2021-09-17T16:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:56:25+00:00</t>
+    <t>2021-09-22T12:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:02+00:00</t>
+    <t>2021-09-22T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:26+00:00</t>
+    <t>2021-09-28T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:53:34+00:00</t>
+    <t>2021-09-28T15:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:56:03+00:00</t>
+    <t>2021-09-29T08:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:15:04+00:00</t>
+    <t>2021-09-29T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:31:05+00:00</t>
+    <t>2021-10-04T14:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T14:35:02+00:00</t>
+    <t>2021-10-04T15:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:11:02+00:00</t>
+    <t>2021-10-04T15:40:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:40:49+00:00</t>
+    <t>2021-10-04T15:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:42:19+00:00</t>
+    <t>2021-10-05T10:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T10:19:44+00:00</t>
+    <t>2021-10-12T16:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T13:46:56+00:00</t>
+    <t>2021-10-14T17:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:10:41+00:00</t>
+    <t>2021-10-14T17:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:11:38+00:00</t>
+    <t>2021-10-18T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T09:02:35+00:00</t>
+    <t>2021-10-18T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T10:54:05+00:00</t>
+    <t>2021-11-12T15:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$113</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3786" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3991" uniqueCount="464">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -504,6 +504,102 @@
     <t>The type of the Medical Item.</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/medication-level}
+</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Specifies the level of the Medication. Value is hardcodded and only retrived through GET. Required by openIMIS Claim-AI module.</t>
+  </si>
+  <si>
+    <t>Medication.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Medication.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Medication.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/medication-level</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Medication.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://openimis.github.io/openimis_fhir_r4_ig/CodeSystem/medication-level"/&gt;
+    &lt;code value="M"/&gt;
+    &lt;display value="Medication"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/medication-level</t>
+  </si>
+  <si>
     <t>Medication.modifierExtension</t>
   </si>
   <si>
@@ -547,9 +643,6 @@
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>.id</t>
   </si>
   <si>
@@ -559,18 +652,6 @@
     <t>Medication.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Medication.identifier.extension</t>
   </si>
   <si>
@@ -580,12 +661,6 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Medication.identifier.use</t>
   </si>
   <si>
@@ -601,9 +676,6 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
@@ -617,10 +689,6 @@
   </si>
   <si>
     <t>Medication.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Description of identifier</t>
@@ -1716,7 +1784,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM107"/>
+  <dimension ref="A1:AM113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1726,7 +1794,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3211,30 +3279,32 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>156</v>
@@ -3242,12 +3312,8 @@
       <c r="L14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>74</v>
       </c>
@@ -3295,7 +3361,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3304,7 +3370,7 @@
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>135</v>
@@ -3313,7 +3379,7 @@
         <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3324,7 +3390,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3332,32 +3398,30 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -3394,14 +3458,16 @@
         <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AB15" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>161</v>
@@ -3410,22 +3476,22 @@
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3433,7 +3499,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3444,7 +3510,7 @@
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>74</v>
@@ -3456,13 +3522,13 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3501,37 +3567,37 @@
         <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
@@ -3542,18 +3608,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -3565,16 +3631,16 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3582,7 +3648,7 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>74</v>
@@ -3612,37 +3678,37 @@
         <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
@@ -3653,7 +3719,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3670,26 +3736,22 @@
         <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3713,31 +3775,29 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3755,26 +3815,28 @@
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>83</v>
@@ -3786,23 +3848,19 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3811,7 +3869,7 @@
         <v>74</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>74</v>
@@ -3826,13 +3884,11 @@
         <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>74</v>
@@ -3850,7 +3906,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3868,50 +3924,54 @@
         <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>200</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3959,25 +4019,25 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3988,39 +4048,39 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4058,19 +4118,17 @@
         <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4082,16 +4140,16 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
@@ -4099,7 +4157,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4110,7 +4168,7 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -4119,23 +4177,19 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4183,47 +4237,47 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -4235,15 +4289,17 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -4280,37 +4336,37 @@
         <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4321,41 +4377,43 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4379,60 +4437,60 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4440,7 +4498,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>83</v>
@@ -4455,19 +4513,19 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4492,13 +4550,13 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4534,18 +4592,18 @@
         <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4565,20 +4623,18 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4627,7 +4683,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4639,35 +4695,35 @@
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>228</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -4676,21 +4732,21 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4714,58 +4770,60 @@
         <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4776,7 +4834,7 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>74</v>
@@ -4788,17 +4846,19 @@
         <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4847,13 +4907,13 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -4865,18 +4925,18 @@
         <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4896,23 +4956,19 @@
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>245</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4960,7 +5016,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4972,35 +5028,35 @@
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>74</v>
@@ -5009,23 +5065,21 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
@@ -5061,48 +5115,48 @@
         <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>258</v>
+        <v>165</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>259</v>
+        <v>162</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>260</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5128,16 +5182,16 @@
         <v>97</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
@@ -5150,7 +5204,7 @@
         <v>74</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>74</v>
@@ -5186,7 +5240,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5204,18 +5258,18 @@
         <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>269</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5223,7 +5277,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>83</v>
@@ -5241,13 +5295,13 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5261,7 +5315,7 @@
         <v>74</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>74</v>
@@ -5297,7 +5351,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5315,18 +5369,18 @@
         <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>277</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5349,16 +5403,18 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5382,13 +5438,11 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5406,7 +5460,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5424,18 +5478,18 @@
         <v>74</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>284</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5458,18 +5512,18 @@
         <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>286</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5517,7 +5571,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5535,34 +5589,32 @@
         <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5571,18 +5623,20 @@
         <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5630,13 +5684,13 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>161</v>
+        <v>270</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>74</v>
@@ -5648,18 +5702,18 @@
         <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5679,19 +5733,23 @@
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5739,7 +5797,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5751,35 +5809,35 @@
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>74</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>74</v>
@@ -5788,21 +5846,23 @@
         <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>176</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5814,7 +5874,7 @@
         <v>74</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>74</v>
@@ -5838,48 +5898,48 @@
         <v>74</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>179</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>174</v>
+        <v>288</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>74</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5887,7 +5947,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>83</v>
@@ -5896,26 +5956,24 @@
         <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>181</v>
+        <v>291</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>182</v>
+        <v>292</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>74</v>
       </c>
@@ -5927,7 +5985,7 @@
         <v>74</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>74</v>
@@ -5939,13 +5997,13 @@
         <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>74</v>
@@ -5963,7 +6021,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5981,18 +6039,18 @@
         <v>74</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>126</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>190</v>
+        <v>298</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6015,20 +6073,16 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>192</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>74</v>
       </c>
@@ -6052,13 +6106,13 @@
         <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>74</v>
@@ -6076,7 +6130,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>199</v>
+        <v>302</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6094,18 +6148,18 @@
         <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>189</v>
+        <v>303</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>200</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6125,18 +6179,20 @@
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>85</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>171</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -6185,7 +6241,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>173</v>
+        <v>310</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6197,56 +6253,58 @@
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>174</v>
+        <v>311</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>74</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>60</v>
+      </c>
       <c r="C41" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6284,19 +6342,19 @@
         <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6308,16 +6366,16 @@
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>74</v>
@@ -6325,7 +6383,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6336,7 +6394,7 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
@@ -6345,23 +6403,19 @@
         <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6409,47 +6463,47 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>211</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>74</v>
@@ -6461,15 +6515,17 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6506,37 +6562,37 @@
         <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6547,41 +6603,43 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6605,60 +6663,60 @@
         <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6681,19 +6739,19 @@
         <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>74</v>
@@ -6718,13 +6776,13 @@
         <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>74</v>
@@ -6760,18 +6818,18 @@
         <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6791,20 +6849,18 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6853,7 +6909,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6865,35 +6921,35 @@
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>228</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>74</v>
@@ -6902,21 +6958,21 @@
         <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>293</v>
+        <v>200</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>74</v>
       </c>
@@ -6925,7 +6981,7 @@
         <v>74</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>74</v>
@@ -6952,48 +7008,48 @@
         <v>74</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7004,7 +7060,7 @@
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>74</v>
@@ -7016,17 +7072,19 @@
         <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N48" t="s" s="2">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -7075,13 +7133,13 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
@@ -7093,18 +7151,18 @@
         <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7124,23 +7182,19 @@
         <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>245</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7188,7 +7242,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7200,35 +7254,35 @@
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>74</v>
@@ -7237,23 +7291,21 @@
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7289,48 +7341,48 @@
         <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>258</v>
+        <v>165</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>259</v>
+        <v>162</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>260</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7356,16 +7408,16 @@
         <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7378,7 +7430,7 @@
         <v>74</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>74</v>
@@ -7414,7 +7466,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7432,18 +7484,18 @@
         <v>74</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>269</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7469,13 +7521,13 @@
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7489,7 +7541,7 @@
         <v>74</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>74</v>
@@ -7525,7 +7577,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7543,18 +7595,18 @@
         <v>74</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>277</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7562,7 +7614,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>83</v>
@@ -7577,16 +7629,18 @@
         <v>84</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>74</v>
       </c>
@@ -7595,7 +7649,7 @@
         <v>74</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>74</v>
@@ -7634,7 +7688,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7652,18 +7706,18 @@
         <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>284</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7686,18 +7740,18 @@
         <v>84</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>286</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>74</v>
       </c>
@@ -7745,7 +7799,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7763,22 +7817,20 @@
         <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>74</v>
       </c>
@@ -7799,18 +7851,20 @@
         <v>84</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>74</v>
       </c>
@@ -7858,13 +7912,13 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>161</v>
+        <v>270</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
@@ -7876,18 +7930,18 @@
         <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>170</v>
+        <v>273</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7907,19 +7961,23 @@
         <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>74</v>
       </c>
@@ -7967,7 +8025,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -7979,35 +8037,35 @@
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>74</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>74</v>
@@ -8016,21 +8074,23 @@
         <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>176</v>
+        <v>282</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
       </c>
@@ -8042,7 +8102,7 @@
         <v>74</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>74</v>
@@ -8066,48 +8126,48 @@
         <v>74</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>179</v>
+        <v>287</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>174</v>
+        <v>288</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>74</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8124,26 +8184,24 @@
         <v>74</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>181</v>
+        <v>291</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>182</v>
+        <v>292</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8155,7 +8213,7 @@
         <v>74</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>74</v>
@@ -8167,13 +8225,13 @@
         <v>74</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>74</v>
@@ -8191,7 +8249,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8209,18 +8267,18 @@
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>126</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>190</v>
+        <v>298</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8243,20 +8301,16 @@
         <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>192</v>
+        <v>300</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8280,13 +8334,13 @@
         <v>74</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>197</v>
+        <v>74</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>74</v>
@@ -8304,7 +8358,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>199</v>
+        <v>302</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8322,18 +8376,18 @@
         <v>74</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>189</v>
+        <v>303</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>200</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8353,18 +8407,20 @@
         <v>74</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>306</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>171</v>
+        <v>307</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -8413,7 +8469,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>173</v>
+        <v>310</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8425,35 +8481,37 @@
         <v>74</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>174</v>
+        <v>311</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>74</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="C61" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>74</v>
@@ -8462,19 +8520,19 @@
         <v>74</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8512,19 +8570,19 @@
         <v>74</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8536,16 +8594,16 @@
         <v>74</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
@@ -8553,7 +8611,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8564,7 +8622,7 @@
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>74</v>
@@ -8573,23 +8631,19 @@
         <v>74</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>74</v>
       </c>
@@ -8637,47 +8691,47 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>211</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>74</v>
@@ -8689,15 +8743,17 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>74</v>
@@ -8734,37 +8790,37 @@
         <v>74</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8775,41 +8831,43 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>74</v>
       </c>
@@ -8833,60 +8891,60 @@
         <v>74</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8909,19 +8967,19 @@
         <v>84</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>74</v>
@@ -8946,13 +9004,13 @@
         <v>74</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>74</v>
@@ -8988,18 +9046,18 @@
         <v>74</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9019,20 +9077,18 @@
         <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>74</v>
@@ -9081,7 +9137,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9093,35 +9149,35 @@
         <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>228</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>74</v>
@@ -9130,21 +9186,21 @@
         <v>74</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>296</v>
+        <v>200</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>74</v>
       </c>
@@ -9153,7 +9209,7 @@
         <v>74</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>74</v>
@@ -9180,48 +9236,48 @@
         <v>74</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9232,7 +9288,7 @@
         <v>75</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>74</v>
@@ -9244,17 +9300,19 @@
         <v>84</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N68" t="s" s="2">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>74</v>
@@ -9303,13 +9361,13 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>74</v>
@@ -9321,18 +9379,18 @@
         <v>74</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9352,23 +9410,19 @@
         <v>74</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>245</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>74</v>
       </c>
@@ -9416,7 +9470,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9428,35 +9482,35 @@
         <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>74</v>
@@ -9465,23 +9519,21 @@
         <v>74</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>74</v>
       </c>
@@ -9517,48 +9569,48 @@
         <v>74</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>258</v>
+        <v>165</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>259</v>
+        <v>162</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>260</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9584,16 +9636,16 @@
         <v>97</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>74</v>
@@ -9606,7 +9658,7 @@
         <v>74</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>74</v>
@@ -9642,7 +9694,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9660,18 +9712,18 @@
         <v>74</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>269</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9697,13 +9749,13 @@
         <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9717,7 +9769,7 @@
         <v>74</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>74</v>
@@ -9753,7 +9805,7 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -9771,18 +9823,18 @@
         <v>74</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>277</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9790,7 +9842,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>83</v>
@@ -9805,16 +9857,18 @@
         <v>84</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>281</v>
+        <v>87</v>
       </c>
       <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>74</v>
       </c>
@@ -9823,7 +9877,7 @@
         <v>74</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>74</v>
+        <v>315</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>74</v>
@@ -9862,7 +9916,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -9880,18 +9934,18 @@
         <v>74</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>284</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9914,18 +9968,18 @@
         <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>286</v>
+        <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>74</v>
       </c>
@@ -9973,7 +10027,7 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -9991,18 +10045,18 @@
         <v>74</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10010,7 +10064,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>83</v>
@@ -10025,18 +10079,20 @@
         <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>74</v>
       </c>
@@ -10060,13 +10116,13 @@
         <v>74</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>74</v>
@@ -10084,7 +10140,7 @@
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -10099,21 +10155,21 @@
         <v>95</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>304</v>
+        <v>74</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>306</v>
+        <v>74</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>307</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10133,19 +10189,23 @@
         <v>74</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>171</v>
+        <v>274</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>74</v>
       </c>
@@ -10193,7 +10253,7 @@
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
@@ -10205,35 +10265,35 @@
         <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>74</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>74</v>
@@ -10242,21 +10302,23 @@
         <v>74</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>176</v>
+        <v>282</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>74</v>
       </c>
@@ -10268,7 +10330,7 @@
         <v>74</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>74</v>
@@ -10292,48 +10354,48 @@
         <v>74</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>179</v>
+        <v>287</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>174</v>
+        <v>288</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>74</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10344,7 +10406,7 @@
         <v>75</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>74</v>
@@ -10356,20 +10418,18 @@
         <v>84</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10381,7 +10441,7 @@
         <v>74</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>74</v>
@@ -10417,13 +10477,13 @@
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>209</v>
+        <v>295</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>74</v>
@@ -10435,18 +10495,18 @@
         <v>74</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>210</v>
+        <v>296</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>211</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10454,7 +10514,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>83</v>
@@ -10469,20 +10529,16 @@
         <v>84</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>299</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>74</v>
       </c>
@@ -10530,7 +10586,7 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10548,18 +10604,18 @@
         <v>74</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>260</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10576,22 +10632,22 @@
         <v>74</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10602,7 +10658,7 @@
         <v>74</v>
       </c>
       <c r="R80" t="s" s="2">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="S80" t="s" s="2">
         <v>74</v>
@@ -10617,13 +10673,13 @@
         <v>74</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>318</v>
+        <v>74</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>319</v>
+        <v>74</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>74</v>
@@ -10641,7 +10697,7 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10659,18 +10715,18 @@
         <v>74</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>74</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10678,10 +10734,10 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>74</v>
@@ -10693,15 +10749,17 @@
         <v>84</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>286</v>
+        <v>173</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>74</v>
@@ -10726,13 +10784,13 @@
         <v>74</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>74</v>
@@ -10750,7 +10808,7 @@
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -10802,17 +10860,15 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>329</v>
+        <v>159</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>74</v>
@@ -10837,13 +10893,13 @@
         <v>74</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>332</v>
+        <v>74</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>74</v>
@@ -10861,7 +10917,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>328</v>
+        <v>161</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10873,35 +10929,35 @@
         <v>74</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>334</v>
+        <v>74</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>335</v>
+        <v>162</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>336</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>74</v>
@@ -10910,18 +10966,20 @@
         <v>74</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>338</v>
+        <v>129</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>339</v>
+        <v>200</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>74</v>
@@ -10958,37 +11016,37 @@
         <v>74</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>337</v>
+        <v>165</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>341</v>
+        <v>162</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>74</v>
@@ -10999,7 +11057,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11010,7 +11068,7 @@
         <v>75</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>74</v>
@@ -11019,19 +11077,23 @@
         <v>74</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>74</v>
       </c>
@@ -11079,47 +11141,47 @@
         <v>74</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>74</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>74</v>
@@ -11128,21 +11190,23 @@
         <v>74</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>177</v>
+        <v>333</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>74</v>
       </c>
@@ -11178,48 +11242,48 @@
         <v>74</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>179</v>
+        <v>278</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>74</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11227,7 +11291,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>83</v>
@@ -11236,21 +11300,23 @@
         <v>74</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>345</v>
+        <v>103</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>74</v>
@@ -11260,7 +11326,7 @@
         <v>74</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>74</v>
@@ -11275,13 +11341,13 @@
         <v>74</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>74</v>
+        <v>338</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>74</v>
@@ -11299,7 +11365,7 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -11317,7 +11383,7 @@
         <v>74</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>74</v>
@@ -11328,7 +11394,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11339,7 +11405,7 @@
         <v>75</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>74</v>
@@ -11348,16 +11414,16 @@
         <v>74</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>85</v>
+        <v>306</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>171</v>
+        <v>342</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>172</v>
+        <v>343</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11408,7 +11474,7 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>173</v>
+        <v>341</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -11420,35 +11486,35 @@
         <v>74</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>174</v>
+        <v>345</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>74</v>
+        <v>347</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>74</v>
@@ -11460,16 +11526,16 @@
         <v>74</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>176</v>
+        <v>349</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>177</v>
+        <v>350</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>158</v>
+        <v>351</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11495,60 +11561,60 @@
         <v>74</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>179</v>
+        <v>348</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>74</v>
+        <v>354</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>174</v>
+        <v>355</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>74</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11556,7 +11622,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>83</v>
@@ -11571,20 +11637,16 @@
         <v>84</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>74</v>
       </c>
@@ -11632,7 +11694,7 @@
         <v>74</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -11650,18 +11712,18 @@
         <v>74</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>360</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11678,30 +11740,26 @@
         <v>74</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>362</v>
+        <v>159</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>363</v>
+        <v>160</v>
       </c>
       <c r="M90" s="2"/>
-      <c r="N90" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P90" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
         <v>74</v>
       </c>
@@ -11721,13 +11779,13 @@
         <v>74</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>366</v>
+        <v>74</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>367</v>
+        <v>74</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>74</v>
@@ -11745,7 +11803,7 @@
         <v>74</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>368</v>
+        <v>161</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -11757,35 +11815,35 @@
         <v>74</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>369</v>
+        <v>162</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>370</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>74</v>
@@ -11794,21 +11852,21 @@
         <v>74</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>372</v>
+        <v>200</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>74</v>
       </c>
@@ -11844,48 +11902,48 @@
         <v>74</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>375</v>
+        <v>165</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>376</v>
+        <v>162</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>377</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11893,7 +11951,7 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>83</v>
@@ -11908,18 +11966,16 @@
         <v>84</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>97</v>
+        <v>365</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="M92" s="2"/>
-      <c r="N92" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>74</v>
       </c>
@@ -11967,7 +12023,7 @@
         <v>74</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -11976,7 +12032,7 @@
         <v>83</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>383</v>
+        <v>74</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>95</v>
@@ -11985,18 +12041,18 @@
         <v>74</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>377</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12016,23 +12072,19 @@
         <v>74</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>386</v>
+        <v>159</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>74</v>
       </c>
@@ -12080,7 +12132,7 @@
         <v>74</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>390</v>
+        <v>161</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
@@ -12092,35 +12144,35 @@
         <v>74</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>391</v>
+        <v>162</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>377</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>74</v>
@@ -12129,18 +12181,20 @@
         <v>74</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>345</v>
+        <v>129</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>393</v>
+        <v>200</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>74</v>
@@ -12177,37 +12231,37 @@
         <v>74</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AC94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>395</v>
+        <v>165</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>396</v>
+        <v>162</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>74</v>
@@ -12218,7 +12272,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12226,10 +12280,10 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>74</v>
@@ -12238,21 +12292,23 @@
         <v>74</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>74</v>
       </c>
@@ -12300,13 +12356,13 @@
         <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>74</v>
@@ -12318,18 +12374,18 @@
         <v>74</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>74</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12346,26 +12402,30 @@
         <v>74</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>171</v>
+        <v>382</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>172</v>
+        <v>383</v>
       </c>
       <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="Q96" t="s" s="2">
         <v>74</v>
       </c>
@@ -12385,13 +12445,13 @@
         <v>74</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>74</v>
+        <v>386</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>74</v>
+        <v>387</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>74</v>
@@ -12409,7 +12469,7 @@
         <v>74</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>173</v>
+        <v>388</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>75</v>
@@ -12421,35 +12481,35 @@
         <v>74</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>174</v>
+        <v>389</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>74</v>
+        <v>390</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>74</v>
@@ -12458,21 +12518,21 @@
         <v>74</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>176</v>
+        <v>392</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>74</v>
       </c>
@@ -12520,71 +12580,69 @@
         <v>74</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>179</v>
+        <v>395</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>174</v>
+        <v>396</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>74</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>406</v>
+        <v>74</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>159</v>
+        <v>401</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>74</v>
@@ -12633,36 +12691,36 @@
         <v>74</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>74</v>
+        <v>403</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>126</v>
+        <v>404</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>74</v>
+        <v>397</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12670,7 +12728,7 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>83</v>
@@ -12682,20 +12740,22 @@
         <v>74</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>411</v>
+        <v>103</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="N99" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>74</v>
@@ -12747,7 +12807,7 @@
         <v>410</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>83</v>
@@ -12759,21 +12819,21 @@
         <v>95</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>304</v>
+        <v>74</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>416</v>
+        <v>397</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12784,7 +12844,7 @@
         <v>75</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>74</v>
@@ -12793,21 +12853,19 @@
         <v>74</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>245</v>
+        <v>365</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M100" s="2"/>
-      <c r="N100" t="s" s="2">
-        <v>420</v>
-      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>74</v>
       </c>
@@ -12855,7 +12913,7 @@
         <v>74</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -12873,7 +12931,7 @@
         <v>74</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>74</v>
@@ -12884,7 +12942,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12895,7 +12953,7 @@
         <v>75</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>74</v>
@@ -12907,15 +12965,17 @@
         <v>74</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>338</v>
+        <v>418</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M101" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>74</v>
@@ -12964,13 +13024,13 @@
         <v>74</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>74</v>
@@ -12979,21 +13039,21 @@
         <v>95</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>425</v>
+        <v>74</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>341</v>
+        <v>422</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>426</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13004,7 +13064,7 @@
         <v>75</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>74</v>
@@ -13016,13 +13076,13 @@
         <v>74</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>398</v>
+        <v>85</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>428</v>
+        <v>159</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>429</v>
+        <v>160</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13073,7 +13133,7 @@
         <v>74</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>427</v>
+        <v>161</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -13085,13 +13145,13 @@
         <v>74</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>430</v>
+        <v>162</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>74</v>
@@ -13102,18 +13162,18 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>74</v>
@@ -13125,15 +13185,17 @@
         <v>74</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M103" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>74</v>
@@ -13182,25 +13244,25 @@
         <v>74</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>74</v>
@@ -13211,11 +13273,11 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>155</v>
+        <v>426</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13228,24 +13290,26 @@
         <v>74</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J104" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>176</v>
+        <v>427</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>177</v>
+        <v>428</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N104" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O104" t="s" s="2">
         <v>74</v>
       </c>
@@ -13293,7 +13357,7 @@
         <v>74</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>179</v>
+        <v>429</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -13311,7 +13375,7 @@
         <v>74</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>74</v>
@@ -13322,42 +13386,40 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>406</v>
+        <v>74</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>129</v>
+        <v>431</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M105" s="2"/>
       <c r="N105" t="s" s="2">
-        <v>159</v>
+        <v>434</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>74</v>
@@ -13406,36 +13468,36 @@
         <v>74</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>74</v>
+        <v>324</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>126</v>
+        <v>435</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>74</v>
+        <v>436</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13458,16 +13520,18 @@
         <v>74</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>85</v>
+        <v>265</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+      <c r="N106" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>74</v>
       </c>
@@ -13515,7 +13579,7 @@
         <v>74</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>75</v>
@@ -13530,21 +13594,21 @@
         <v>95</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>324</v>
+        <v>74</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>168</v>
+        <v>441</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>437</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13567,13 +13631,13 @@
         <v>74</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>439</v>
+        <v>358</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13624,7 +13688,7 @@
         <v>74</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>75</v>
@@ -13639,20 +13703,680 @@
         <v>95</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>324</v>
+        <v>445</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>442</v>
+        <v>361</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM107">
+  <autoFilter ref="A1:AM113">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13662,7 +14386,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI106">
+  <conditionalFormatting sqref="A2:AI112">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-medication.xlsx
+++ b/StructureDefinition-openimis-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
